--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2191922.794268957</v>
+        <v>2189716.700862519</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604725</v>
+        <v>7094780.68260473</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>355.9164886355134</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>175.275955836074</v>
       </c>
       <c r="G2" t="n">
         <v>14.0301000117425</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866717</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>134.1533154302915</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6625960688247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154863</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015529</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>71.93224592859292</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273909</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5064544755703</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>174.8054347222007</v>
+        <v>167.6658543343084</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>23.59704391789208</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>249.1013685779825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>17.1565667452055</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>195.4109594035737</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.6772923066871</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.0246247964033</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.43691176767048</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>190.4406976167018</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>55.23722996868938</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>109.1426482162451</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192023</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>223.588863382937</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>28.87187436015408</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.043187116398331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>33.65999533764793</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>84.69473660442789</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249707</v>
       </c>
       <c r="C28" t="n">
-        <v>135.2600028019029</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.49945341590993</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.8383425293633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744748</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.4648320575198</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G35" t="n">
         <v>375.4263093674076</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880148</v>
+        <v>6.081513486880098</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550212998</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535743</v>
@@ -3323,13 +3323,13 @@
         <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840891</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924231</v>
       </c>
       <c r="Y35" t="n">
         <v>350.7425223700077</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C37" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D37" t="n">
         <v>113.1200567321665</v>
@@ -3436,13 +3436,13 @@
         <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>40.89820845892545</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H37" t="n">
         <v>109.2595986282749</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379227</v>
+        <v>60.85700412379223</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400146</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U37" t="n">
         <v>250.716421919567</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>63.67712960726566</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556655</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880191</v>
+        <v>6.081513486880084</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213007</v>
+        <v>73.69234550212998</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840891</v>
+        <v>292.256842184089</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924239</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>131.7514048125819</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>60.29851832539577</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729823</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.85700412379223</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400156</v>
+        <v>53.43673638400145</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T40" t="n">
-        <v>125.4984296551304</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D41" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862158</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880041</v>
+        <v>6.081513486880148</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728561</v>
       </c>
       <c r="V41" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958913</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125819</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605232</v>
+        <v>88.28041190688788</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>104.1412316772861</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901232</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195669</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V43" t="n">
-        <v>216.642227037782</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>251.027582050545</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660488</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D44" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862158</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F44" t="n">
         <v>371.3806294556655</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486881189</v>
+        <v>6.081513486880098</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550212997</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
-        <v>215.499755672856</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
         <v>292.256842184089</v>
@@ -4043,7 +4043,7 @@
         <v>334.2356843924231</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958913</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>131.7514048125819</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605232</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
         <v>130.5303919729823</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282748</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379217</v>
+        <v>60.85700412379223</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400141</v>
+        <v>53.43673638400145</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T46" t="n">
-        <v>64.64142553134242</v>
+        <v>165.642926742359</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195669</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V46" t="n">
-        <v>216.642227037782</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W46" t="n">
-        <v>251.027582050545</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.0892370660488</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.1523770869862</v>
+        <v>239.475993085134</v>
       </c>
       <c r="C2" t="n">
-        <v>787.1523770869862</v>
+        <v>239.475993085134</v>
       </c>
       <c r="D2" t="n">
-        <v>428.8866784802357</v>
+        <v>239.475993085134</v>
       </c>
       <c r="E2" t="n">
-        <v>69.37507379789896</v>
+        <v>239.475993085134</v>
       </c>
       <c r="F2" t="n">
-        <v>62.42957304869549</v>
+        <v>62.42957304869553</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244778</v>
+        <v>143.361340524478</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293487</v>
+        <v>406.6417666293491</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024613</v>
+        <v>785.5410436024619</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782767</v>
+        <v>1223.746040782768</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400857</v>
+        <v>1654.409655400858</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.88545667174</v>
+        <v>2015.885456671741</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110671</v>
+        <v>2286.722307110673</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.88774275081</v>
+        <v>2342.254609045087</v>
       </c>
       <c r="S2" t="n">
-        <v>2231.049518025873</v>
+        <v>2160.41638432015</v>
       </c>
       <c r="T2" t="n">
-        <v>2231.049518025873</v>
+        <v>1940.6942844282</v>
       </c>
       <c r="U2" t="n">
-        <v>2231.049518025873</v>
+        <v>1686.91262593571</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.986630682302</v>
+        <v>1355.84973859214</v>
       </c>
       <c r="W2" t="n">
-        <v>1547.217975412188</v>
+        <v>1003.081083322026</v>
       </c>
       <c r="X2" t="n">
-        <v>1173.752217151108</v>
+        <v>629.6153250609457</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.752217151108</v>
+        <v>239.475993085134</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8055048397986</v>
+        <v>784.1436512030579</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3524755586716</v>
+        <v>609.6906219219309</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4180658974203</v>
+        <v>460.7562122606795</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1806108919648</v>
+        <v>301.518757255224</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6460529188497</v>
+        <v>154.984199282109</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>154.984199282109</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8765821596108</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J3" t="n">
-        <v>111.207419271958</v>
+        <v>70.8478915058283</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503511</v>
+        <v>305.0597375842216</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265937</v>
+        <v>681.3908644604645</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664337</v>
+        <v>1172.530760772835</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.93233298718</v>
+        <v>1692.376682095678</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602204</v>
+        <v>2101.518461710702</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642313</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.88774275081</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841562</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="S3" t="n">
-        <v>2354.422089841562</v>
+        <v>2252.245964543517</v>
       </c>
       <c r="T3" t="n">
-        <v>2155.007808179863</v>
+        <v>2052.831682881818</v>
       </c>
       <c r="U3" t="n">
-        <v>1926.829439856071</v>
+        <v>1824.653314558026</v>
       </c>
       <c r="V3" t="n">
-        <v>1691.677331624328</v>
+        <v>1589.501206326283</v>
       </c>
       <c r="W3" t="n">
-        <v>1437.439974896126</v>
+        <v>1335.263849598081</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.78114062482</v>
+        <v>1127.412349392549</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.020841859867</v>
+        <v>919.6520506275947</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="C4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="D4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="E4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="F4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="G4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="H4" t="n">
-        <v>187.9376705916223</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501619</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460989</v>
+        <v>91.87143294461004</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384339</v>
+        <v>203.2083598384341</v>
       </c>
       <c r="M4" t="n">
-        <v>330.986661753428</v>
+        <v>330.9866617534284</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692842</v>
+        <v>461.1612976692847</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984513</v>
+        <v>565.3823477984519</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978465</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="Q4" t="n">
-        <v>592.2931142257345</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="R4" t="n">
-        <v>592.2931142257345</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="S4" t="n">
-        <v>592.2931142257345</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="T4" t="n">
-        <v>364.5088167756635</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="U4" t="n">
-        <v>187.9376705916223</v>
+        <v>461.6813298753133</v>
       </c>
       <c r="V4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="W4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="X4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.9376705916223</v>
+        <v>206.9968416694265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>404.9730996812223</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2390.502857530551</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2059.43997018698</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2059.43997018698</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2059.43997018698</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4635,19 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4659,16 +4659,16 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7441767280769</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7441767280769</v>
+        <v>218.1627947174723</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>327.455452512359</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,25 +4887,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,49 +5042,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3163.468180669545</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4043.432830999</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4438.207197356178</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.5284434797272</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="C13" t="n">
-        <v>470.5284434797272</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D13" t="n">
-        <v>470.5284434797272</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E13" t="n">
-        <v>470.5284434797272</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>470.5284434797272</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>302.8256068544462</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>156.608420072304</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W13" t="n">
-        <v>1100.959038351514</v>
+        <v>938.6754285818427</v>
       </c>
       <c r="X13" t="n">
-        <v>872.9694874534971</v>
+        <v>710.6858776838253</v>
       </c>
       <c r="Y13" t="n">
-        <v>652.176908309967</v>
+        <v>489.8932985402952</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.596327402151</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089898</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.1255161526726</v>
+        <v>390.364075528698</v>
       </c>
       <c r="C16" t="n">
-        <v>613.1893332247657</v>
+        <v>390.364075528698</v>
       </c>
       <c r="D16" t="n">
-        <v>613.1893332247657</v>
+        <v>390.364075528698</v>
       </c>
       <c r="E16" t="n">
-        <v>465.2762396423726</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5437,10 +5437,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.55611102446</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.55611102446</v>
+        <v>1020.794670400485</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.566560126442</v>
+        <v>792.805119502468</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.7739809829123</v>
+        <v>572.0125403589378</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L17" t="n">
         <v>1453.840519464784</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N17" t="n">
         <v>2979.169639353395</v>
@@ -5540,7 +5540,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.473983799873</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1156.056813762912</v>
+        <v>725.9916293201817</v>
       </c>
       <c r="X19" t="n">
-        <v>930.2094770124706</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4168978689405</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888615</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5841,16 +5841,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4168978689405</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5923,10 +5923,10 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1927.179956650002</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1705.413341219528</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1416.310474345172</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.55611102446</v>
+        <v>1161.625986139285</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.138940987499</v>
+        <v>872.2088161023239</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894816</v>
+        <v>644.2192652043066</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.0653626991802</v>
+        <v>423.4266860607764</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025902</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6081,13 +6081,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>720.6978970137293</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1123.138940987499</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>902.346361843969</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,52 +6224,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>932.5990189467752</v>
+        <v>1014.851249206416</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.11783460013</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>844.8098170227822</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1764.65758193153</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>1475.240411894569</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>1247.250860996552</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y28" t="n">
-        <v>1026.458281853022</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3008.107474639231</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6558,10 +6558,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.0030950818858</v>
+        <v>399.0634049978497</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0669121539789</v>
+        <v>399.0634049978497</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>248.946765585514</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>248.946765585514</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>248.946765585514</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>248.946765585514</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1577.410141987875</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>1287.992971950914</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>1060.003421052897</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6515599121255</v>
+        <v>399.0634049978497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175503</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.59632740215</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.0030950818859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>558.066912153979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>558.066912153979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6874,7 +6874,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894817</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>727.0030950818859</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1106.808364398086</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529689</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424561</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571325</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967276</v>
@@ -6938,22 +6938,22 @@
         <v>440.8701136590512</v>
       </c>
       <c r="K35" t="n">
-        <v>1095.593445794351</v>
+        <v>964.0989216124497</v>
       </c>
       <c r="L35" t="n">
-        <v>1546.627659042759</v>
+        <v>1415.133134860858</v>
       </c>
       <c r="M35" t="n">
-        <v>2100.445421925739</v>
+        <v>1948.665039532783</v>
       </c>
       <c r="N35" t="n">
-        <v>2647.224238984521</v>
+        <v>2495.443856591565</v>
       </c>
       <c r="O35" t="n">
-        <v>3527.188889313975</v>
+        <v>2998.416327470902</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671153</v>
+        <v>3711.771414917847</v>
       </c>
       <c r="Q35" t="n">
         <v>4170.249617426835</v>
@@ -6980,7 +6980,7 @@
         <v>2817.294225360972</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285972</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474703</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862191</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807635</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076486</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I36" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702898</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506369</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633022</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
         <v>1230.501287685618</v>
@@ -7029,7 +7029,7 @@
         <v>1704.024331240073</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P36" t="n">
         <v>2425.48520213423</v>
@@ -7059,7 +7059,7 @@
         <v>1335.592707513619</v>
       </c>
       <c r="Y36" t="n">
-        <v>1127.832408748665</v>
+        <v>1127.832408748666</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.1716476727534</v>
+        <v>858.7092067778614</v>
       </c>
       <c r="C37" t="n">
-        <v>635.0894205893371</v>
+        <v>725.6269796944453</v>
       </c>
       <c r="D37" t="n">
-        <v>520.8267370214921</v>
+        <v>611.3642961266003</v>
       </c>
       <c r="E37" t="n">
-        <v>408.7675992835898</v>
+        <v>499.3051583886978</v>
       </c>
       <c r="F37" t="n">
-        <v>297.7316076301704</v>
+        <v>388.2691667352782</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544881</v>
+        <v>256.420285954488</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218555</v>
       </c>
       <c r="L37" t="n">
         <v>755.6763338935367</v>
@@ -7120,25 +7120,25 @@
         <v>2172.514960923483</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="T37" t="n">
-        <v>2016.6830325948</v>
+        <v>1986.6023013375</v>
       </c>
       <c r="U37" t="n">
-        <v>1763.434121564934</v>
+        <v>1733.353390307635</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.603589203538</v>
+        <v>1514.522857946238</v>
       </c>
       <c r="W37" t="n">
-        <v>1291.040375011068</v>
+        <v>1260.959643753769</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.904779957542</v>
+        <v>1068.824048700242</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.9661566585023</v>
+        <v>1004.50371576361</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7151,46 @@
         <v>2112.262965010018</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D38" t="n">
         <v>1456.742661151838</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529671</v>
+        <v>731.6764154529679</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424543</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571335</v>
+        <v>90.72827659571325</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386981</v>
+        <v>281.0602564399086</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739975</v>
+        <v>614.879630129755</v>
       </c>
       <c r="L38" t="n">
-        <v>1379.222010022406</v>
+        <v>1065.913843378164</v>
       </c>
       <c r="M38" t="n">
-        <v>1912.75391469433</v>
+        <v>2044.464146207992</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.532731753113</v>
+        <v>3024.216418434638</v>
       </c>
       <c r="O38" t="n">
-        <v>2998.416327470902</v>
+        <v>3527.188889313975</v>
       </c>
       <c r="P38" t="n">
-        <v>3711.771414917847</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q38" t="n">
         <v>4170.249617426835</v>
@@ -7205,10 +7205,10 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
         <v>3154.90602777756</v>
@@ -7269,7 +7269,7 @@
         <v>2114.985610658127</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q39" t="n">
         <v>2583.126759780831</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>797.2374854406979</v>
+        <v>582.2589880867708</v>
       </c>
       <c r="C40" t="n">
-        <v>664.1552583572817</v>
+        <v>449.1767610033548</v>
       </c>
       <c r="D40" t="n">
-        <v>549.8925747894367</v>
+        <v>449.1767610033548</v>
       </c>
       <c r="E40" t="n">
-        <v>437.8334370515342</v>
+        <v>388.2691667352782</v>
       </c>
       <c r="F40" t="n">
-        <v>326.7974453981146</v>
+        <v>388.2691667352782</v>
       </c>
       <c r="G40" t="n">
-        <v>194.9485646173243</v>
+        <v>256.420285954488</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I40" t="n">
         <v>84.58533367967276</v>
@@ -7333,10 +7333,10 @@
         <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,7 +7345,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045764</v>
@@ -7357,25 +7357,25 @@
         <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2172.514960923483</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>2045.748870362745</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1792.499959332879</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.669426971483</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1320.106212779013</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.970617725486</v>
+        <v>912.9921203715589</v>
       </c>
       <c r="Y40" t="n">
-        <v>943.031994426447</v>
+        <v>728.0534970725198</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571331</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967276</v>
@@ -7412,22 +7412,22 @@
         <v>440.8701136590512</v>
       </c>
       <c r="K41" t="n">
-        <v>774.6894873488975</v>
+        <v>964.0989216124497</v>
       </c>
       <c r="L41" t="n">
-        <v>1639.208303002252</v>
+        <v>1415.133134860858</v>
       </c>
       <c r="M41" t="n">
-        <v>2477.437601375857</v>
+        <v>1948.665039532783</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.216418434638</v>
+        <v>2495.443856591565</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313975</v>
+        <v>2998.416327470902</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671153</v>
+        <v>3711.771414917847</v>
       </c>
       <c r="Q41" t="n">
         <v>4170.249617426835</v>
@@ -7442,13 +7442,13 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
         <v>2817.294225360971</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285972</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474703</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862191</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807635</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076486</v>
       </c>
       <c r="G42" t="n">
         <v>194.0945196402673</v>
@@ -7488,52 +7488,52 @@
         <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K42" t="n">
         <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633023</v>
       </c>
       <c r="M42" t="n">
         <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
         <v>2114.985610658128</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y42" t="n">
-        <v>1127.832408748666</v>
+        <v>1127.832408748665</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>792.0674178134364</v>
+        <v>835.8222022792399</v>
       </c>
       <c r="C43" t="n">
-        <v>658.9851907300201</v>
+        <v>702.7399751958237</v>
       </c>
       <c r="D43" t="n">
-        <v>544.7225071621752</v>
+        <v>588.4772916279787</v>
       </c>
       <c r="E43" t="n">
-        <v>432.663369424273</v>
+        <v>499.305158388698</v>
       </c>
       <c r="F43" t="n">
-        <v>321.6273777708535</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="G43" t="n">
-        <v>189.7784969900628</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218559</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935373</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N43" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045766</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2226.491462321465</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>2040.578802735482</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.329891705617</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1568.499359344221</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1314.936145151751</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.800550098224</v>
+        <v>1166.555334564028</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.8619267991852</v>
+        <v>981.6167112649889</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7625,46 @@
         <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.676415452969</v>
+        <v>731.6764154529689</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424563</v>
+        <v>352.4579211424561</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571436</v>
+        <v>90.72827659571325</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386981</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1877967739975</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L44" t="n">
-        <v>1379.222010022406</v>
+        <v>1546.627659042759</v>
       </c>
       <c r="M44" t="n">
-        <v>1912.75391469433</v>
+        <v>2080.159563714683</v>
       </c>
       <c r="N44" t="n">
-        <v>2892.506186920977</v>
+        <v>2626.938380773466</v>
       </c>
       <c r="O44" t="n">
-        <v>3395.478657800314</v>
+        <v>3129.910851652803</v>
       </c>
       <c r="P44" t="n">
-        <v>3921.963255671153</v>
+        <v>3711.771414917847</v>
       </c>
       <c r="Q44" t="n">
         <v>4170.249617426835</v>
@@ -7682,7 +7682,7 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W44" t="n">
         <v>3154.90602777756</v>
@@ -7740,10 +7740,10 @@
         <v>1704.024331240073</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q45" t="n">
         <v>2583.126759780831</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>858.7092067778608</v>
+        <v>746.6500690399587</v>
       </c>
       <c r="C46" t="n">
-        <v>725.6269796944448</v>
+        <v>613.5678419565428</v>
       </c>
       <c r="D46" t="n">
-        <v>611.3642961265999</v>
+        <v>499.3051583886979</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886977</v>
+        <v>499.3051583886979</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352782</v>
+        <v>388.2691667352783</v>
       </c>
       <c r="G46" t="n">
-        <v>256.420285954488</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H46" t="n">
         <v>146.0570550168366</v>
@@ -7807,19 +7807,19 @@
         <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935373</v>
+        <v>755.6763338935369</v>
       </c>
       <c r="M46" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
         <v>2113.740704045765</v>
@@ -7828,28 +7828,28 @@
         <v>2226.491462321465</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923485</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S46" t="n">
-        <v>2172.514960923485</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T46" t="n">
-        <v>2107.220591699907</v>
+        <v>1849.366944976256</v>
       </c>
       <c r="U46" t="n">
-        <v>1853.971680670041</v>
+        <v>1596.11803394639</v>
       </c>
       <c r="V46" t="n">
-        <v>1635.141148308645</v>
+        <v>1377.287501584994</v>
       </c>
       <c r="W46" t="n">
-        <v>1381.577934116175</v>
+        <v>1123.724287392525</v>
       </c>
       <c r="X46" t="n">
-        <v>1189.442339062649</v>
+        <v>931.5886923389979</v>
       </c>
       <c r="Y46" t="n">
-        <v>1004.50371576361</v>
+        <v>746.6500690399587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>85.32383557664136</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>267.9233699372456</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>53.06279368686302</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.86979469803921</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>170.1140909277305</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="L17" t="n">
-        <v>64.28566532692543</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>132.9990175570117</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>201.9664098701135</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>246.4545694808461</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>317.5146261106152</v>
+        <v>231.5010718068651</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>248.8012738805281</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>229.1155640189945</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>191.3226608722749</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>20.49076586975264</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7.672516970919702</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>36.27386347318395</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>191.3226608722749</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>307.7751451532123</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>133.0406378925874</v>
+        <v>188.9759564725927</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>35.91550864216761</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>96.08230071988925</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>90.18381805424187</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>177.3803501203459</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.1421360569669</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2.120792006100182</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>160.8971509712879</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.5414662356964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.5868257609799</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696662</v>
       </c>
       <c r="C28" t="n">
-        <v>31.98681829672498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>89.25556149841086</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.74631082273152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,10 +25123,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696708</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.11982129457499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>89.63218351405693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>119.4121074587832</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>50.64002803512752</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379233</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>58.55510333499302</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>22.65813445363545</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.118366950988761</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379218</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400139</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453959</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.273609045396</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>119.4121074587808</v>
+        <v>18.41060624776426</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415312</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841786.5885415315</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841786.5885415312</v>
+        <v>841786.5885415314</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>853955.662165008</v>
+        <v>853955.6621650081</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>853955.6621650083</v>
+        <v>853955.6621650081</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>853955.6621650083</v>
+        <v>853955.6621650081</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516046</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516047</v>
-      </c>
       <c r="E2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="F2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="G2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="H2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="I2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="L2" t="n">
         <v>575768.5909861254</v>
       </c>
-      <c r="I2" t="n">
-        <v>575768.5909861254</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.5909861255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>575768.5909861254</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861256</v>
-      </c>
       <c r="M2" t="n">
-        <v>590493.1516844324</v>
+        <v>590493.1516844331</v>
       </c>
       <c r="N2" t="n">
         <v>590493.1516844325</v>
       </c>
       <c r="O2" t="n">
-        <v>590493.1516844329</v>
+        <v>590493.1516844324</v>
       </c>
       <c r="P2" t="n">
-        <v>590493.1516844324</v>
+        <v>590493.1516844331</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394259</v>
+        <v>507203.1428394265</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418118</v>
+        <v>78665.28217418067</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410732</v>
+        <v>157829.400141073</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022184</v>
+        <v>18289.94367022173</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.193711796076968e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.77175472</v>
+        <v>232017.7717547199</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,37 +26424,37 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289569</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28561.83935289574</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289569</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28561.83935289572</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28561.83935289574</v>
+      </c>
+      <c r="J4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="F4" t="n">
-        <v>28561.83935289573</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28561.83935289572</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28561.83935289579</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289577</v>
-      </c>
       <c r="K4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289578</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501862</v>
+        <v>55718.30868501867</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501856</v>
+        <v>55718.30868501863</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501872</v>
+        <v>55718.30868501861</v>
       </c>
       <c r="P4" t="n">
         <v>55718.30868501867</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133427</v>
+        <v>77204.68871133431</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26500,13 +26500,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>91026.04982123678</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91026.04982123678</v>
+      </c>
+      <c r="O5" t="n">
         <v>91026.04982123677</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91026.04982123677</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
         <v>91026.04982123678</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-221170.3201538755</v>
+        <v>-221170.3201538761</v>
       </c>
       <c r="C6" t="n">
-        <v>223808.5074509809</v>
+        <v>223808.5074509812</v>
       </c>
       <c r="D6" t="n">
-        <v>302473.7896251619</v>
+        <v>302473.7896251621</v>
       </c>
       <c r="E6" t="n">
-        <v>-276554.1806138905</v>
+        <v>-276621.376104116</v>
       </c>
       <c r="F6" t="n">
-        <v>450823.2333795163</v>
+        <v>450756.0378892906</v>
       </c>
       <c r="G6" t="n">
-        <v>450823.2333795166</v>
+        <v>450756.0378892902</v>
       </c>
       <c r="H6" t="n">
-        <v>450823.2333795162</v>
+        <v>450756.0378892904</v>
       </c>
       <c r="I6" t="n">
-        <v>450823.2333795161</v>
+        <v>450756.0378892905</v>
       </c>
       <c r="J6" t="n">
-        <v>292993.8332384429</v>
+        <v>292926.6377482176</v>
       </c>
       <c r="K6" t="n">
-        <v>432533.2897092942</v>
+        <v>432466.0942190688</v>
       </c>
       <c r="L6" t="n">
-        <v>450823.2333795163</v>
+        <v>450756.0378892903</v>
       </c>
       <c r="M6" t="n">
-        <v>319900.0019900021</v>
+        <v>319883.5808470123</v>
       </c>
       <c r="N6" t="n">
-        <v>443748.7931781772</v>
+        <v>443732.3720351869</v>
       </c>
       <c r="O6" t="n">
-        <v>443748.7931781773</v>
+        <v>443732.3720351869</v>
       </c>
       <c r="P6" t="n">
-        <v>443748.793178177</v>
+        <v>443732.3720351874</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>35.49541628604588</v>
+      </c>
+      <c r="N2" t="n">
+        <v>35.49541628604588</v>
+      </c>
+      <c r="O2" t="n">
         <v>35.49541628604583</v>
       </c>
-      <c r="N2" t="n">
-        <v>35.49541628604579</v>
-      </c>
-      <c r="O2" t="n">
-        <v>35.49541628604594</v>
-      </c>
       <c r="P2" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688973</v>
+        <v>316.5685789688977</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.221935687703</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49213974509621e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688973</v>
+        <v>316.5685789688977</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818936</v>
+        <v>61.17508524818896</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.221935687703</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685309</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.221935687703</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685309</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877024</v>
+        <v>603.221935687703</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685309</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>26.01388143674836</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>231.6000899056374</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866728</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.37986821957588</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154859</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015522</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>133.8407392748846</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255616</v>
+        <v>52.9992811225561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.36018782739083</v>
       </c>
       <c r="R4" t="n">
         <v>151.625388236511</v>
@@ -27588,13 +27588,13 @@
         <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>111.4824567412768</v>
+        <v>118.6220371291691</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>390.1871261029029</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1227989303068</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>131.4589062730068</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>56.72668392025429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155.0565493567935</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>53.1454267792825</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.80735538553398</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.11405564034068e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.940506073573502e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860451</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604583</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604479</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604588</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392551</v>
+        <v>1.272637503392553</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161897</v>
+        <v>13.03339883161898</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954136</v>
+        <v>49.06335734954143</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035636</v>
+        <v>108.0135173035638</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221703</v>
+        <v>161.8842628221706</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166201</v>
+        <v>200.8317428166204</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175774</v>
+        <v>223.4640100175777</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240915</v>
+        <v>227.0798913240918</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497318</v>
+        <v>214.4251021497321</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847282</v>
+        <v>183.0068637847285</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944824</v>
+        <v>137.4305331944826</v>
       </c>
       <c r="R2" t="n">
-        <v>79.9423155724824</v>
+        <v>79.94231557248251</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855778</v>
+        <v>29.00022710855782</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100894</v>
+        <v>5.570970671100902</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714041</v>
+        <v>0.1018110002714042</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.68092109438593</v>
+        <v>0.680921094385931</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674641</v>
+        <v>6.57626425367465</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986645</v>
+        <v>23.44399381986648</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933035</v>
+        <v>64.33211093933045</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631877</v>
+        <v>109.9538242631878</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665591</v>
+        <v>147.8464858665593</v>
       </c>
       <c r="M3" t="n">
-        <v>172.529875538049</v>
+        <v>172.5298755380492</v>
       </c>
       <c r="N3" t="n">
-        <v>177.096227964874</v>
+        <v>177.0962279648742</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313752</v>
+        <v>162.0084500313754</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674325</v>
+        <v>130.0260640674327</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915837</v>
+        <v>86.9189803991585</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248784</v>
+        <v>42.27683777248791</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861584</v>
+        <v>12.64781067861586</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739778</v>
+        <v>2.744589849739782</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012699</v>
+        <v>0.04479744042012706</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111262</v>
+        <v>0.570861371911127</v>
       </c>
       <c r="H4" t="n">
-        <v>5.07547656117347</v>
+        <v>5.075476561173478</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801824</v>
+        <v>17.16735834801826</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411662</v>
+        <v>40.35989899411668</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840173</v>
+        <v>66.32371211840183</v>
       </c>
       <c r="L4" t="n">
-        <v>84.8715170566778</v>
+        <v>84.87151705667793</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148679</v>
+        <v>89.48511487148693</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890903</v>
+        <v>87.35735884890916</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009521993</v>
+        <v>80.68866009522006</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823291</v>
+        <v>69.04308810823301</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430349</v>
+        <v>47.80185542430355</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065845</v>
+        <v>25.66800314065848</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760259</v>
+        <v>9.948556817760274</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711175</v>
+        <v>2.439134952711178</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333419</v>
+        <v>0.03113789301333424</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,10 +33032,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33989,10 +33989,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34460,13 +34460,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970259</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.0642279489511</v>
+        <v>96.06422794895126</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483545</v>
+        <v>265.9398243483548</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970833</v>
+        <v>382.7265423970836</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831372</v>
+        <v>442.6313102831375</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394847</v>
+        <v>435.0137521394851</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907905</v>
+        <v>365.1270719907908</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009413</v>
+        <v>273.5725762009416</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799376</v>
+        <v>127.4398339799378</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307249</v>
+        <v>22.81831984930512</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014072</v>
+        <v>236.5776223014074</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901441</v>
+        <v>380.1324513901443</v>
       </c>
       <c r="M3" t="n">
-        <v>298.3192115532763</v>
+        <v>496.1009053660308</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250942</v>
+        <v>525.0968902250945</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636603</v>
+        <v>413.2745248636605</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930395</v>
+        <v>314.5144252930397</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.014494048986</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251888</v>
+        <v>44.05422029251898</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169939</v>
+        <v>112.4615423169941</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333274</v>
+        <v>129.0689918333275</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281376</v>
+        <v>131.4895312281378</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092596</v>
+        <v>105.2737880092597</v>
       </c>
       <c r="P4" t="n">
-        <v>66.3216473731264</v>
+        <v>66.3216473731265</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>283.6640995017587</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>568.8760771471024</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306621</v>
+        <v>45.57841661306615</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
@@ -35811,19 +35811,19 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L17" t="n">
-        <v>519.8757797192576</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257243</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>740.88752570034</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36279,25 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>798.7564048937573</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789364</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>654.7059126660156</v>
+        <v>568.6923583622655</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>756.8542747687471</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>737.1685649072135</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>528.5139474276752</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>559.4118816999792</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911208</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37470,7 +37470,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N37" t="n">
         <v>380.3523624535859</v>
@@ -37479,7 +37479,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q37" t="n">
         <v>113.8896548239395</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>198.4595179396322</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>544.326864361403</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911208</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>528.5139474276752</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>846.6962609834388</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37795,10 +37795,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265651</v>
@@ -38026,16 +38026,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>531.8026241119591</v>
+        <v>587.7379426919643</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38108,13 +38108,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525815</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911208</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
         <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311563</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
